--- a/tests/artifact/data/Mobile-UnitOfMeasurement.data.xlsx
+++ b/tests/artifact/data/Mobile-UnitOfMeasurement.data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="3" r:id="rId1"/>
@@ -112,7 +112,7 @@
     <t>Logout</t>
   </si>
   <si>
-    <t>//li[normalize-space(text())='Logout']</t>
+    <t>//li/a[span='Log Out']</t>
   </si>
   <si>
     <t>Login.logoutaccount</t>
@@ -603,10 +603,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1152,16 +1152,16 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1742,14 +1742,14 @@
   <sheetPr/>
   <dimension ref="A1:C269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.66428571428571" defaultRowHeight="16" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="33.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="112.416666666667" customWidth="1"/>
+    <col min="1" max="1" width="33.6642857142857" customWidth="1"/>
+    <col min="2" max="2" width="112.414285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2472,7 +2472,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" ht="16.8" spans="1:2">
+    <row r="91" ht="17" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
